--- a/Data_files/Part_1/Randstad_car_times.xlsx
+++ b/Data_files/Part_1/Randstad_car_times.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TimEW\PycharmProjects\Design_in_Network_group_8\Data_files\Part_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44B8CC4-9E0B-45DF-803E-36F3781DB022}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFFF9F8-8F21-48F0-B0DC-8862B1DF4DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,9 +59,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="24">
-  <si>
-    <t>Cities</t>
-  </si>
   <si>
     <t>Alkmaar</t>
   </si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Schiedam</t>
+  </si>
+  <si>
+    <t>Locations</t>
   </si>
 </sst>
 </file>
@@ -601,89 +601,87 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="P1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="7" t="str" cm="1">
         <f t="array" ref="C2:W2">TRANSPOSE(B3:B23)</f>
@@ -752,13 +750,13 @@
     </row>
     <row r="3" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D3" s="7" t="str" cm="1">
         <f t="array" ref="D3:W3">TRANSPOSE(C4:C23)</f>
@@ -824,16 +822,16 @@
     </row>
     <row r="4" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="7" t="str" cm="1">
         <f t="array" ref="E4:W4">TRANSPOSE(D5:D23)</f>
@@ -896,19 +894,19 @@
     </row>
     <row r="5" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="6">
         <v>37</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" cm="1">
         <f t="array" ref="F5:W5">TRANSPOSE(E6:E23)</f>
@@ -968,22 +966,22 @@
     </row>
     <row r="6" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" s="6">
         <v>28</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6" s="6">
         <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" s="7" t="str" cm="1">
         <f t="array" ref="G6:W6">TRANSPOSE(F7:F23)</f>
@@ -1040,25 +1038,25 @@
     </row>
     <row r="7" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7" cm="1">
         <f t="array" ref="H7:W7">TRANSPOSE(G8:G23)</f>
@@ -1112,28 +1110,28 @@
     </row>
     <row r="8" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G8" s="6">
         <v>20</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I8" s="7" t="str" cm="1">
         <f t="array" ref="I8:W8">TRANSPOSE(H9:H23)</f>
@@ -1184,31 +1182,31 @@
     </row>
     <row r="9" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="7" t="str" cm="1">
         <f t="array" ref="J9:W9">TRANSPOSE(I10:I23)</f>
@@ -1256,34 +1254,34 @@
     </row>
     <row r="10" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6">
         <v>26</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="str" cm="1">
         <f t="array" ref="K10:W10">TRANSPOSE(J11:J23)</f>
@@ -1328,37 +1326,37 @@
     </row>
     <row r="11" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F11" s="6">
         <v>25</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L11" s="7" t="str" cm="1">
         <f t="array" ref="L11:W11">TRANSPOSE(K12:K23)</f>
@@ -1400,16 +1398,16 @@
     </row>
     <row r="12" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="6">
         <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="6">
         <v>23</v>
@@ -1418,22 +1416,22 @@
         <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M12" s="7" t="str" cm="1">
         <f t="array" ref="M12:W12">TRANSPOSE(L13:L23)</f>
@@ -1472,43 +1470,43 @@
     </row>
     <row r="13" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="6">
         <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" s="6">
         <v>23</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K13" s="6">
         <v>37</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M13" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N13" s="7" t="str" cm="1">
         <f t="array" ref="N13:W13">TRANSPOSE(M14:M23)</f>
@@ -1544,28 +1542,28 @@
     </row>
     <row r="14" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G14" s="6">
         <v>20</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="6">
         <v>27</v>
@@ -1574,16 +1572,16 @@
         <v>28</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="8" cm="1">
         <f t="array" ref="O14:W14">TRANSPOSE(N15:N23)</f>
@@ -1616,49 +1614,49 @@
     </row>
     <row r="15" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G15" s="6">
         <v>23</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N15" s="6">
         <v>15</v>
       </c>
       <c r="O15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P15" s="8" t="str" cm="1">
         <f t="array" ref="P15:W15">TRANSPOSE(O16:O23)</f>
@@ -1688,52 +1686,52 @@
     </row>
     <row r="16" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="6">
         <v>22</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F16" s="6">
         <v>21</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="6">
         <v>19</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M16" s="6">
         <v>20</v>
       </c>
       <c r="N16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P16" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q16" s="7" t="str" cm="1">
         <f t="array" ref="Q16:W16">TRANSPOSE(P17:P23)</f>
@@ -1760,55 +1758,55 @@
     </row>
     <row r="17" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" s="6">
         <v>24</v>
       </c>
       <c r="P17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q17" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R17" s="7" t="str" cm="1">
         <f t="array" ref="R17:W17">TRANSPOSE(Q18:Q23)</f>
@@ -1832,16 +1830,16 @@
     </row>
     <row r="18" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E18" s="6">
         <v>23</v>
@@ -1850,40 +1848,40 @@
         <v>40</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="6">
         <v>44</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" s="6">
         <v>22</v>
       </c>
       <c r="M18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P18" s="6">
         <v>41</v>
       </c>
       <c r="Q18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R18" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S18" s="7" t="str" cm="1">
         <f t="array" ref="S18:W18">TRANSPOSE(R19:R23)</f>
@@ -1904,61 +1902,61 @@
     </row>
     <row r="19" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G19" s="6">
         <v>20</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="6">
         <v>16</v>
       </c>
       <c r="P19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q19" s="6">
         <v>14</v>
       </c>
       <c r="R19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T19" s="7" cm="1">
         <f t="array" ref="T19:W19">TRANSPOSE(S20:S23)</f>
@@ -1976,22 +1974,22 @@
     </row>
     <row r="20" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G20" s="6">
         <v>23</v>
@@ -2000,40 +1998,40 @@
         <v>18</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S20" s="6">
         <v>16</v>
       </c>
       <c r="T20" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U20" s="7" t="str" cm="1">
         <f t="array" ref="U20:W20">TRANSPOSE(T21:T23)</f>
@@ -2048,67 +2046,67 @@
     </row>
     <row r="21" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D21" s="6">
         <v>22</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" s="6">
         <v>41</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="6">
         <v>21</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P21" s="6">
         <v>41</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R21" s="6">
         <v>25</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V21" s="7" t="str" cm="1">
         <f t="array" ref="V21:W21">TRANSPOSE(U22:U23)</f>
@@ -2120,70 +2118,70 @@
     </row>
     <row r="22" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="6">
         <v>24</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" s="6">
         <v>16</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K22" s="6">
         <v>30</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V22" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W22" s="7" t="str" cm="1">
         <f t="array" ref="W22">TRANSPOSE(V23)</f>
@@ -2192,22 +2190,22 @@
     </row>
     <row r="23" spans="1:23" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" s="6">
         <v>22</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="6">
         <v>21</v>
@@ -2216,16 +2214,16 @@
         <v>18</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J23" s="6">
         <v>20</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M23" s="6">
         <v>19</v>
@@ -2234,31 +2232,31 @@
         <v>24</v>
       </c>
       <c r="O23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="V23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="W23" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2267,6 +2265,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000967D3B9FC1DD84EB00B55E5790AB85E" ma:contentTypeVersion="4" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="92ec66a21d0d7142cf1fb1ae8fa08641">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6ba023f1-a19b-4eec-904c-052d1f1cb5e0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="62a86672aac255264bf3f3decc56659c" ns2:_="">
     <xsd:import namespace="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
@@ -2410,22 +2423,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B52927-EB1B-4D32-8C26-F724208F026A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FF02CE3-2C5B-42A9-AA67-1B9085842FBD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E3DCCEF-2FC0-4346-9588-18F66903106E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2441,28 +2463,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FF02CE3-2C5B-42A9-AA67-1B9085842FBD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41B52927-EB1B-4D32-8C26-F724208F026A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6ba023f1-a19b-4eec-904c-052d1f1cb5e0"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>